--- a/Test Cases/TC_RegistrationForm.xlsx
+++ b/Test Cases/TC_RegistrationForm.xlsx
@@ -5,21 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zgeorgiev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zgeorgiev\Desktop\Forms Testing\trunk\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="510" yWindow="615" windowWidth="8295" windowHeight="8895"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Username" sheetId="1" r:id="rId1"/>
+    <sheet name="Birthday" sheetId="4" r:id="rId2"/>
+    <sheet name="Email" sheetId="2" r:id="rId3"/>
+    <sheet name="Password" sheetId="3" r:id="rId4"/>
+    <sheet name="City &amp; Address" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
   <si>
     <t>TC Title</t>
   </si>
@@ -731,11 +735,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -883,251 +887,407 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="38.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="42.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>